--- a/biology/Microbiologie/Oxytétracycline/Oxytétracycline.xlsx
+++ b/biology/Microbiologie/Oxytétracycline/Oxytétracycline.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Oxyt%C3%A9tracycline</t>
+          <t>Oxytétracycline</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'oxytétracycline est un antibiotique à large spectre du groupe des tétracyclines.
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Oxyt%C3%A9tracycline</t>
+          <t>Oxytétracycline</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,7 +527,9 @@
           <t>Contre-indications et effets secondaires</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les effets secondaires les plus répandus sont : une sécheresse de la peau, des nausées et des vomissements.
 L’oxytétracycline convient aux hommes comme aux femmes. En revanche elle est déconseillé aux personnes allergiques ou ayant une forte sensibilité à la lumière. Elle est aussi contre-indiquée aux personnes souffrant de maladies du foie ou des reins et aux femmes enceintes ou allaitantes.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Oxyt%C3%A9tracycline</t>
+          <t>Oxytétracycline</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,9 +561,11 @@
           <t>Utilisation en agriculture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En Floride (États-Unis), le chlorhydrate d'oxytétracycline (souvent dénommé OTC) est agréé pour le traitement des palmiers atteints de la maladie du jaunissement mortel du palmier causée par un phytoplasme[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Floride (États-Unis), le chlorhydrate d'oxytétracycline (souvent dénommé OTC) est agréé pour le traitement des palmiers atteints de la maladie du jaunissement mortel du palmier causée par un phytoplasme.
 </t>
         </is>
       </c>
